--- a/Code/Results/Cases/Case_0_216/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_216/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.00306159727349</v>
+        <v>1.054482436495485</v>
       </c>
       <c r="D2">
-        <v>1.014886335940865</v>
+        <v>1.060446119281124</v>
       </c>
       <c r="E2">
-        <v>1.008549421109671</v>
+        <v>1.050990986245248</v>
       </c>
       <c r="F2">
-        <v>1.016854828139853</v>
+        <v>1.068265494641657</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043481381443665</v>
+        <v>1.037987471969305</v>
       </c>
       <c r="J2">
-        <v>1.025151120516433</v>
+        <v>1.059494301194172</v>
       </c>
       <c r="K2">
-        <v>1.026142104097095</v>
+        <v>1.063172877107181</v>
       </c>
       <c r="L2">
-        <v>1.019890920140591</v>
+        <v>1.053743728498696</v>
       </c>
       <c r="M2">
-        <v>1.028084238159154</v>
+        <v>1.070971139364868</v>
       </c>
       <c r="N2">
-        <v>1.026606952694049</v>
+        <v>1.060998904627563</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.010892103599548</v>
+        <v>1.056030239185165</v>
       </c>
       <c r="D3">
-        <v>1.021926176351252</v>
+        <v>1.061888008690297</v>
       </c>
       <c r="E3">
-        <v>1.01508356343</v>
+        <v>1.05232729638981</v>
       </c>
       <c r="F3">
-        <v>1.024620217737478</v>
+        <v>1.069876919874395</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045394466575919</v>
+        <v>1.038270075816362</v>
       </c>
       <c r="J3">
-        <v>1.031090179596884</v>
+        <v>1.060690506652528</v>
       </c>
       <c r="K3">
-        <v>1.032285988452503</v>
+        <v>1.064427609904409</v>
       </c>
       <c r="L3">
-        <v>1.025527017454865</v>
+        <v>1.054891247837263</v>
       </c>
       <c r="M3">
-        <v>1.034947479227926</v>
+        <v>1.07239653348784</v>
       </c>
       <c r="N3">
-        <v>1.032554445919608</v>
+        <v>1.062196808834875</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.015800339200499</v>
+        <v>1.057030013025923</v>
       </c>
       <c r="D4">
-        <v>1.026344610992811</v>
+        <v>1.062819611122021</v>
       </c>
       <c r="E4">
-        <v>1.019185501912644</v>
+        <v>1.053190660904914</v>
       </c>
       <c r="F4">
-        <v>1.029496100334656</v>
+        <v>1.070918455706163</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046579252297771</v>
+        <v>1.038450774612747</v>
       </c>
       <c r="J4">
-        <v>1.034808327917508</v>
+        <v>1.061462387340376</v>
       </c>
       <c r="K4">
-        <v>1.036135146364081</v>
+        <v>1.065237591656355</v>
       </c>
       <c r="L4">
-        <v>1.029057760487963</v>
+        <v>1.055631915650374</v>
       </c>
       <c r="M4">
-        <v>1.039251104376725</v>
+        <v>1.07331720832368</v>
       </c>
       <c r="N4">
-        <v>1.036277874437325</v>
+        <v>1.062969785681837</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.017828014250297</v>
+        <v>1.057449905854163</v>
       </c>
       <c r="D5">
-        <v>1.028171250259081</v>
+        <v>1.063210929917202</v>
       </c>
       <c r="E5">
-        <v>1.020881487626869</v>
+        <v>1.053553310574234</v>
       </c>
       <c r="F5">
-        <v>1.031512379845108</v>
+        <v>1.071356047129854</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047065195152796</v>
+        <v>1.038526224014055</v>
       </c>
       <c r="J5">
-        <v>1.036343204856307</v>
+        <v>1.061786379264676</v>
       </c>
       <c r="K5">
-        <v>1.03772477456654</v>
+        <v>1.065577656534241</v>
       </c>
       <c r="L5">
-        <v>1.030515807699843</v>
+        <v>1.055942854701243</v>
       </c>
       <c r="M5">
-        <v>1.041029341410427</v>
+        <v>1.073703872558603</v>
       </c>
       <c r="N5">
-        <v>1.03781493107743</v>
+        <v>1.063294237711831</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018166434693316</v>
+        <v>1.057520383796147</v>
       </c>
       <c r="D6">
-        <v>1.028476192444113</v>
+        <v>1.06327661511248</v>
       </c>
       <c r="E6">
-        <v>1.021164628782374</v>
+        <v>1.053614183134978</v>
       </c>
       <c r="F6">
-        <v>1.03184901257462</v>
+        <v>1.071429505052509</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047146090869765</v>
+        <v>1.038538862074563</v>
       </c>
       <c r="J6">
-        <v>1.036599307150044</v>
+        <v>1.061840749411679</v>
       </c>
       <c r="K6">
-        <v>1.037990051876423</v>
+        <v>1.065634728647893</v>
       </c>
       <c r="L6">
-        <v>1.030759121578407</v>
+        <v>1.055995037246807</v>
       </c>
       <c r="M6">
-        <v>1.041326148436727</v>
+        <v>1.073768772685536</v>
       </c>
       <c r="N6">
-        <v>1.038071397065799</v>
+        <v>1.063348685070679</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.015827570756954</v>
+        <v>1.057035625262869</v>
       </c>
       <c r="D7">
-        <v>1.026369137569637</v>
+        <v>1.062824841218099</v>
       </c>
       <c r="E7">
-        <v>1.019208273462423</v>
+        <v>1.053195507852622</v>
       </c>
       <c r="F7">
-        <v>1.029523171125886</v>
+        <v>1.070924303875627</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046585792475125</v>
+        <v>1.038451784798023</v>
       </c>
       <c r="J7">
-        <v>1.034828945879417</v>
+        <v>1.061466718519232</v>
       </c>
       <c r="K7">
-        <v>1.036156497142157</v>
+        <v>1.065242137385377</v>
       </c>
       <c r="L7">
-        <v>1.029077344302731</v>
+        <v>1.055636072145485</v>
       </c>
       <c r="M7">
-        <v>1.039274984746075</v>
+        <v>1.073322376463142</v>
       </c>
       <c r="N7">
-        <v>1.036298521679105</v>
+        <v>1.062974123011464</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005742204592184</v>
+        <v>1.055005892963334</v>
       </c>
       <c r="D8">
-        <v>1.017294998567042</v>
+        <v>1.060933706191777</v>
       </c>
       <c r="E8">
-        <v>1.01078485521543</v>
+        <v>1.051442875323422</v>
       </c>
       <c r="F8">
-        <v>1.019511316879834</v>
+        <v>1.068810329459765</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044139275573542</v>
+        <v>1.038083428634659</v>
       </c>
       <c r="J8">
-        <v>1.027185138905985</v>
+        <v>1.059899012402581</v>
       </c>
       <c r="K8">
-        <v>1.02824568541455</v>
+        <v>1.063597320416795</v>
       </c>
       <c r="L8">
-        <v>1.021820693918435</v>
+        <v>1.054131925606957</v>
       </c>
       <c r="M8">
-        <v>1.030433325003706</v>
+        <v>1.07145320434981</v>
       </c>
       <c r="N8">
-        <v>1.028643859623013</v>
+        <v>1.061404190572308</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9866436391429807</v>
+        <v>1.051415386574669</v>
       </c>
       <c r="D9">
-        <v>1.00016294769037</v>
+        <v>1.0575902547965</v>
       </c>
       <c r="E9">
-        <v>0.9948899673031525</v>
+        <v>1.048344123443946</v>
       </c>
       <c r="F9">
-        <v>1.000624198000617</v>
+        <v>1.065075941863568</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03939269565678</v>
+        <v>1.037417673258272</v>
       </c>
       <c r="J9">
-        <v>1.012677024159609</v>
+        <v>1.057119793812636</v>
       </c>
       <c r="K9">
-        <v>1.01325338173502</v>
+        <v>1.060683974375679</v>
       </c>
       <c r="L9">
-        <v>1.008066498888882</v>
+        <v>1.051466952024531</v>
       </c>
       <c r="M9">
-        <v>1.013707156139085</v>
+        <v>1.068146498928457</v>
       </c>
       <c r="N9">
-        <v>1.014115141689593</v>
+        <v>1.058621025173184</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9728405840304628</v>
+        <v>1.04901184370997</v>
       </c>
       <c r="D10">
-        <v>0.987823343591436</v>
+        <v>1.055353400576256</v>
       </c>
       <c r="E10">
-        <v>0.9834494091523531</v>
+        <v>1.046270883022984</v>
       </c>
       <c r="F10">
-        <v>0.9870286108008774</v>
+        <v>1.062579568055084</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035889753929188</v>
+        <v>1.03696251149623</v>
       </c>
       <c r="J10">
-        <v>1.002174801272811</v>
+        <v>1.055255320747745</v>
       </c>
       <c r="K10">
-        <v>1.002415987673103</v>
+        <v>1.058731247520011</v>
       </c>
       <c r="L10">
-        <v>0.9981240607421613</v>
+        <v>1.049680181888776</v>
       </c>
       <c r="M10">
-        <v>1.001636084917862</v>
+        <v>1.065932813610963</v>
       </c>
       <c r="N10">
-        <v>1.003598004441675</v>
+        <v>1.056753904342683</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9665620318078059</v>
+        <v>1.047968617636877</v>
       </c>
       <c r="D11">
-        <v>0.9822223350442336</v>
+        <v>1.054382841897471</v>
       </c>
       <c r="E11">
-        <v>0.9782589219907094</v>
+        <v>1.045371296120907</v>
       </c>
       <c r="F11">
-        <v>0.9808588243785208</v>
+        <v>1.061496882717916</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034280461867537</v>
+        <v>1.036762708072706</v>
       </c>
       <c r="J11">
-        <v>0.997395206727492</v>
+        <v>1.054445123585315</v>
       </c>
       <c r="K11">
-        <v>0.9974874842032052</v>
+        <v>1.057883108768819</v>
       </c>
       <c r="L11">
-        <v>0.9936028295811425</v>
+        <v>1.048904002881296</v>
       </c>
       <c r="M11">
-        <v>0.9961509739767773</v>
+        <v>1.064971969224934</v>
       </c>
       <c r="N11">
-        <v>0.9988116223238743</v>
+        <v>1.055942556607352</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9641797707478794</v>
+        <v>1.047580734243854</v>
       </c>
       <c r="D12">
-        <v>0.9800991170569942</v>
+        <v>1.054022025633275</v>
       </c>
       <c r="E12">
-        <v>0.9762917436733939</v>
+        <v>1.045036861813877</v>
       </c>
       <c r="F12">
-        <v>0.9785201333859435</v>
+        <v>1.061094453551759</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03366758366718</v>
+        <v>1.036688081814976</v>
       </c>
       <c r="J12">
-        <v>0.9955814683048042</v>
+        <v>1.05414374120605</v>
       </c>
       <c r="K12">
-        <v>0.9956177830586785</v>
+        <v>1.05756767394362</v>
       </c>
       <c r="L12">
-        <v>0.9918877018276103</v>
+        <v>1.048615312877311</v>
       </c>
       <c r="M12">
-        <v>0.9940707576093036</v>
+        <v>1.064614713246173</v>
       </c>
       <c r="N12">
-        <v>0.9969953081845877</v>
+        <v>1.055640746230539</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9646931270063724</v>
+        <v>1.047663954043785</v>
       </c>
       <c r="D13">
-        <v>0.9805565600778541</v>
+        <v>1.054099436012551</v>
       </c>
       <c r="E13">
-        <v>0.97671554837632</v>
+        <v>1.045108612258704</v>
       </c>
       <c r="F13">
-        <v>0.979023994448135</v>
+        <v>1.061180788432874</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03379975364753</v>
+        <v>1.036704108009733</v>
       </c>
       <c r="J13">
-        <v>0.9959723204934154</v>
+        <v>1.054208408751016</v>
       </c>
       <c r="K13">
-        <v>0.9960206703912889</v>
+        <v>1.057635353945946</v>
       </c>
       <c r="L13">
-        <v>0.9922572777777589</v>
+        <v>1.04867725529765</v>
       </c>
       <c r="M13">
-        <v>0.9945189786616025</v>
+        <v>1.064691362110034</v>
       </c>
       <c r="N13">
-        <v>0.9973867154281381</v>
+        <v>1.055705505610837</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9663661662181426</v>
+        <v>1.047936562945808</v>
       </c>
       <c r="D14">
-        <v>0.98204772664249</v>
+        <v>1.054353023039951</v>
       </c>
       <c r="E14">
-        <v>0.978097137074458</v>
+        <v>1.045343657593081</v>
       </c>
       <c r="F14">
-        <v>0.9806664935637655</v>
+        <v>1.061463623398821</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034230117197558</v>
+        <v>1.036756547828446</v>
       </c>
       <c r="J14">
-        <v>0.9972460877642887</v>
+        <v>1.054420220228555</v>
       </c>
       <c r="K14">
-        <v>0.9973337531578771</v>
+        <v>1.05785704300266</v>
       </c>
       <c r="L14">
-        <v>0.9934618063507016</v>
+        <v>1.048880147523869</v>
       </c>
       <c r="M14">
-        <v>0.9959799210281417</v>
+        <v>1.064942445643138</v>
       </c>
       <c r="N14">
-        <v>0.998662291594639</v>
+        <v>1.055917617884969</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9673901830320982</v>
+        <v>1.048104475241886</v>
       </c>
       <c r="D15">
-        <v>0.9829606883169313</v>
+        <v>1.054509225346801</v>
       </c>
       <c r="E15">
-        <v>0.9789430669636855</v>
+        <v>1.04548843841397</v>
       </c>
       <c r="F15">
-        <v>0.9816721243019566</v>
+        <v>1.061637851051644</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034493235965376</v>
+        <v>1.036788803280803</v>
       </c>
       <c r="J15">
-        <v>0.9980256975093016</v>
+        <v>1.054550665841983</v>
       </c>
       <c r="K15">
-        <v>0.9981374974622076</v>
+        <v>1.057993579910866</v>
       </c>
       <c r="L15">
-        <v>0.9941991139794957</v>
+        <v>1.049005105199028</v>
       </c>
       <c r="M15">
-        <v>0.9968742544950575</v>
+        <v>1.065097099091554</v>
       </c>
       <c r="N15">
-        <v>0.9994430084749123</v>
+        <v>1.056048248746131</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9732505201396456</v>
+        <v>1.04908102610214</v>
       </c>
       <c r="D16">
-        <v>0.988189301546094</v>
+        <v>1.055417770734278</v>
       </c>
       <c r="E16">
-        <v>0.9837885992830685</v>
+        <v>1.046330545752818</v>
       </c>
       <c r="F16">
-        <v>0.9874317538822542</v>
+        <v>1.062651384794122</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03599450843915</v>
+        <v>1.036975714375947</v>
       </c>
       <c r="J16">
-        <v>1.002486828951729</v>
+        <v>1.055309029741672</v>
       </c>
       <c r="K16">
-        <v>1.002737811471982</v>
+        <v>1.05878748030043</v>
       </c>
       <c r="L16">
-        <v>0.9984192981661907</v>
+        <v>1.049731641103248</v>
       </c>
       <c r="M16">
-        <v>1.001994343919091</v>
+        <v>1.065996532341396</v>
       </c>
       <c r="N16">
-        <v>1.003910475235687</v>
+        <v>1.056807689609542</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.976842599634417</v>
+        <v>1.04969292014837</v>
       </c>
       <c r="D17">
-        <v>0.9913973755342195</v>
+        <v>1.05598713907934</v>
       </c>
       <c r="E17">
-        <v>0.9867623007669154</v>
+        <v>1.046858273654351</v>
       </c>
       <c r="F17">
-        <v>0.9909659436805309</v>
+        <v>1.063286674866477</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036910645807442</v>
+        <v>1.037092230086796</v>
       </c>
       <c r="J17">
-        <v>1.005220719012699</v>
+        <v>1.055783957769158</v>
       </c>
       <c r="K17">
-        <v>1.00555794015795</v>
+        <v>1.059284772313291</v>
       </c>
       <c r="L17">
-        <v>1.001006485398248</v>
+        <v>1.050186704351873</v>
       </c>
       <c r="M17">
-        <v>1.005134248742603</v>
+        <v>1.066560099563685</v>
       </c>
       <c r="N17">
-        <v>1.006648247734125</v>
+        <v>1.057283292089303</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9789090439654775</v>
+        <v>1.050049589412711</v>
       </c>
       <c r="D18">
-        <v>0.9932440087505414</v>
+        <v>1.056319051002483</v>
       </c>
       <c r="E18">
-        <v>0.9884742493909117</v>
+        <v>1.047165909495692</v>
       </c>
       <c r="F18">
-        <v>0.9930004238131616</v>
+        <v>1.063657061733509</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037436179764427</v>
+        <v>1.037159929899881</v>
       </c>
       <c r="J18">
-        <v>1.006793222968034</v>
+        <v>1.056060699087496</v>
       </c>
       <c r="K18">
-        <v>1.007180387402874</v>
+        <v>1.059574584512222</v>
       </c>
       <c r="L18">
-        <v>1.002494942994604</v>
+        <v>1.050451894759846</v>
       </c>
       <c r="M18">
-        <v>1.006941082874565</v>
+        <v>1.066888597125767</v>
       </c>
       <c r="N18">
-        <v>1.008222984825445</v>
+        <v>1.057560426412055</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9796089051926383</v>
+        <v>1.050171164339274</v>
       </c>
       <c r="D19">
-        <v>0.9938696060123386</v>
+        <v>1.056432192270222</v>
       </c>
       <c r="E19">
-        <v>0.9890542552786965</v>
+        <v>1.04727077526764</v>
       </c>
       <c r="F19">
-        <v>0.9936896826898343</v>
+        <v>1.063783326055015</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037613909200962</v>
+        <v>1.037182969448322</v>
       </c>
       <c r="J19">
-        <v>1.007325751707332</v>
+        <v>1.056155014129525</v>
       </c>
       <c r="K19">
-        <v>1.007729887105752</v>
+        <v>1.059673360863034</v>
       </c>
       <c r="L19">
-        <v>1.002999065604626</v>
+        <v>1.050542277307948</v>
       </c>
       <c r="M19">
-        <v>1.007553103098163</v>
+        <v>1.067000568991286</v>
       </c>
       <c r="N19">
-        <v>1.008756269816635</v>
+        <v>1.057654875392262</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9764602101720663</v>
+        <v>1.049627294422169</v>
       </c>
       <c r="D20">
-        <v>0.9910557493449625</v>
+        <v>1.055926071066799</v>
       </c>
       <c r="E20">
-        <v>0.9864456090365998</v>
+        <v>1.046801672010422</v>
       </c>
       <c r="F20">
-        <v>0.9905895766791907</v>
+        <v>1.063218531611323</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036813274882753</v>
+        <v>1.037079756153495</v>
       </c>
       <c r="J20">
-        <v>1.004929711093797</v>
+        <v>1.055733031110831</v>
       </c>
       <c r="K20">
-        <v>1.005257717273302</v>
+        <v>1.059231443487663</v>
       </c>
       <c r="L20">
-        <v>1.000731058139793</v>
+        <v>1.050137905280927</v>
       </c>
       <c r="M20">
-        <v>1.004799940238097</v>
+        <v>1.066499657130346</v>
       </c>
       <c r="N20">
-        <v>1.006356826550599</v>
+        <v>1.05723229310928</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9658749237158429</v>
+        <v>1.047856297072276</v>
       </c>
       <c r="D21">
-        <v>0.9816098306382159</v>
+        <v>1.054278356545043</v>
       </c>
       <c r="E21">
-        <v>0.9776914077124469</v>
+        <v>1.045274450608111</v>
       </c>
       <c r="F21">
-        <v>0.980184153967972</v>
+        <v>1.061380343132656</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034103813800609</v>
+        <v>1.036741116956603</v>
       </c>
       <c r="J21">
-        <v>0.9968720855008535</v>
+        <v>1.054357859214561</v>
       </c>
       <c r="K21">
-        <v>0.9969481921734582</v>
+        <v>1.057791772164909</v>
       </c>
       <c r="L21">
-        <v>0.9931081180578758</v>
+        <v>1.048820411442168</v>
       </c>
       <c r="M21">
-        <v>0.9955509265477807</v>
+        <v>1.064868517693012</v>
       </c>
       <c r="N21">
-        <v>0.9982877582050909</v>
+        <v>1.055855168311183</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9589265865277881</v>
+        <v>1.046740580702345</v>
       </c>
       <c r="D22">
-        <v>0.9754210041834265</v>
+        <v>1.05324058899513</v>
       </c>
       <c r="E22">
-        <v>0.9719582761288016</v>
+        <v>1.044312557361141</v>
       </c>
       <c r="F22">
-        <v>0.9733674472218535</v>
+        <v>1.060223024342215</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032312073873997</v>
+        <v>1.036525825564399</v>
       </c>
       <c r="J22">
-        <v>0.9915817149987661</v>
+        <v>1.053490689576189</v>
       </c>
       <c r="K22">
-        <v>0.9914956233740069</v>
+        <v>1.056884284816989</v>
       </c>
       <c r="L22">
-        <v>0.9881064924702817</v>
+        <v>1.047989833577582</v>
       </c>
       <c r="M22">
-        <v>0.98948562920586</v>
+        <v>1.063840893508426</v>
       </c>
       <c r="N22">
-        <v>0.9929898747700766</v>
+        <v>1.054986767192458</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9626395957313623</v>
+        <v>1.047332257112261</v>
       </c>
       <c r="D23">
-        <v>0.9787269964629473</v>
+        <v>1.05379090139819</v>
       </c>
       <c r="E23">
-        <v>0.9750205887989901</v>
+        <v>1.044822636090308</v>
       </c>
       <c r="F23">
-        <v>0.9770087949838961</v>
+        <v>1.060836693867633</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.0332707244031</v>
+        <v>1.036640181586305</v>
       </c>
       <c r="J23">
-        <v>0.9944088104485144</v>
+        <v>1.053950636549982</v>
       </c>
       <c r="K23">
-        <v>0.9944090964658389</v>
+        <v>1.057365582718806</v>
       </c>
       <c r="L23">
-        <v>0.9907789637589575</v>
+        <v>1.048430351338914</v>
       </c>
       <c r="M23">
-        <v>0.9927261592704469</v>
+        <v>1.064385855164628</v>
       </c>
       <c r="N23">
-        <v>0.995820985019636</v>
+        <v>1.055447367343711</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9766330840170759</v>
+        <v>1.049656948599123</v>
       </c>
       <c r="D24">
-        <v>0.9912101911842953</v>
+        <v>1.055953665663393</v>
       </c>
       <c r="E24">
-        <v>0.9865887778489147</v>
+        <v>1.046827248409961</v>
       </c>
       <c r="F24">
-        <v>0.9907597236891107</v>
+        <v>1.063249323131602</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036857299820157</v>
+        <v>1.037085393396131</v>
       </c>
       <c r="J24">
-        <v>1.005061273167577</v>
+        <v>1.055756043529107</v>
       </c>
       <c r="K24">
-        <v>1.005393444294354</v>
+        <v>1.059255541260538</v>
       </c>
       <c r="L24">
-        <v>1.000855575295511</v>
+        <v>1.050159956223186</v>
       </c>
       <c r="M24">
-        <v>1.004951075646142</v>
+        <v>1.066526969149358</v>
       </c>
       <c r="N24">
-        <v>1.006488575457614</v>
+        <v>1.05725533820783</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9917553357716594</v>
+        <v>1.052345317647873</v>
       </c>
       <c r="D25">
-        <v>1.004741695183618</v>
+        <v>1.058455972446507</v>
       </c>
       <c r="E25">
-        <v>0.9991368771197588</v>
+        <v>1.049146499361079</v>
       </c>
       <c r="F25">
-        <v>1.005670448853084</v>
+        <v>1.066042526630272</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040675776566096</v>
+        <v>1.037591774157936</v>
       </c>
       <c r="J25">
-        <v>1.01656338751588</v>
+        <v>1.057840312773198</v>
       </c>
       <c r="K25">
-        <v>1.017266845703722</v>
+        <v>1.061438962270022</v>
       </c>
       <c r="L25">
-        <v>1.01174860675201</v>
+        <v>1.052157666780288</v>
       </c>
       <c r="M25">
-        <v>1.018181371567414</v>
+        <v>1.069002950000282</v>
       </c>
       <c r="N25">
-        <v>1.018007024127603</v>
+        <v>1.059342567353315</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_216/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_216/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.054482436495485</v>
+        <v>1.003061597273489</v>
       </c>
       <c r="D2">
-        <v>1.060446119281124</v>
+        <v>1.014886335940864</v>
       </c>
       <c r="E2">
-        <v>1.050990986245248</v>
+        <v>1.00854942110967</v>
       </c>
       <c r="F2">
-        <v>1.068265494641657</v>
+        <v>1.016854828139852</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037987471969305</v>
+        <v>1.043481381443665</v>
       </c>
       <c r="J2">
-        <v>1.059494301194172</v>
+        <v>1.025151120516432</v>
       </c>
       <c r="K2">
-        <v>1.063172877107181</v>
+        <v>1.026142104097094</v>
       </c>
       <c r="L2">
-        <v>1.053743728498696</v>
+        <v>1.019890920140591</v>
       </c>
       <c r="M2">
-        <v>1.070971139364868</v>
+        <v>1.028084238159154</v>
       </c>
       <c r="N2">
-        <v>1.060998904627563</v>
+        <v>1.026606952694048</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.056030239185165</v>
+        <v>1.010892103599548</v>
       </c>
       <c r="D3">
-        <v>1.061888008690297</v>
+        <v>1.021926176351252</v>
       </c>
       <c r="E3">
-        <v>1.05232729638981</v>
+        <v>1.01508356343</v>
       </c>
       <c r="F3">
-        <v>1.069876919874395</v>
+        <v>1.024620217737478</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038270075816362</v>
+        <v>1.045394466575919</v>
       </c>
       <c r="J3">
-        <v>1.060690506652528</v>
+        <v>1.031090179596884</v>
       </c>
       <c r="K3">
-        <v>1.064427609904409</v>
+        <v>1.032285988452503</v>
       </c>
       <c r="L3">
-        <v>1.054891247837263</v>
+        <v>1.025527017454865</v>
       </c>
       <c r="M3">
-        <v>1.07239653348784</v>
+        <v>1.034947479227927</v>
       </c>
       <c r="N3">
-        <v>1.062196808834875</v>
+        <v>1.032554445919608</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.057030013025923</v>
+        <v>1.0158003392005</v>
       </c>
       <c r="D4">
-        <v>1.062819611122021</v>
+        <v>1.026344610992812</v>
       </c>
       <c r="E4">
-        <v>1.053190660904914</v>
+        <v>1.019185501912644</v>
       </c>
       <c r="F4">
-        <v>1.070918455706163</v>
+        <v>1.029496100334657</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038450774612747</v>
+        <v>1.046579252297771</v>
       </c>
       <c r="J4">
-        <v>1.061462387340376</v>
+        <v>1.034808327917509</v>
       </c>
       <c r="K4">
-        <v>1.065237591656355</v>
+        <v>1.036135146364082</v>
       </c>
       <c r="L4">
-        <v>1.055631915650374</v>
+        <v>1.029057760487964</v>
       </c>
       <c r="M4">
-        <v>1.07331720832368</v>
+        <v>1.039251104376727</v>
       </c>
       <c r="N4">
-        <v>1.062969785681837</v>
+        <v>1.036277874437326</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.057449905854163</v>
+        <v>1.017828014250297</v>
       </c>
       <c r="D5">
-        <v>1.063210929917202</v>
+        <v>1.028171250259081</v>
       </c>
       <c r="E5">
-        <v>1.053553310574234</v>
+        <v>1.020881487626868</v>
       </c>
       <c r="F5">
-        <v>1.071356047129854</v>
+        <v>1.031512379845108</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038526224014055</v>
+        <v>1.047065195152796</v>
       </c>
       <c r="J5">
-        <v>1.061786379264676</v>
+        <v>1.036343204856307</v>
       </c>
       <c r="K5">
-        <v>1.065577656534241</v>
+        <v>1.03772477456654</v>
       </c>
       <c r="L5">
-        <v>1.055942854701243</v>
+        <v>1.030515807699843</v>
       </c>
       <c r="M5">
-        <v>1.073703872558603</v>
+        <v>1.041029341410427</v>
       </c>
       <c r="N5">
-        <v>1.063294237711831</v>
+        <v>1.037814931077431</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.057520383796147</v>
+        <v>1.018166434693316</v>
       </c>
       <c r="D6">
-        <v>1.06327661511248</v>
+        <v>1.028476192444113</v>
       </c>
       <c r="E6">
-        <v>1.053614183134978</v>
+        <v>1.021164628782374</v>
       </c>
       <c r="F6">
-        <v>1.071429505052509</v>
+        <v>1.03184901257462</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038538862074563</v>
+        <v>1.047146090869765</v>
       </c>
       <c r="J6">
-        <v>1.061840749411679</v>
+        <v>1.036599307150044</v>
       </c>
       <c r="K6">
-        <v>1.065634728647893</v>
+        <v>1.037990051876423</v>
       </c>
       <c r="L6">
-        <v>1.055995037246807</v>
+        <v>1.030759121578407</v>
       </c>
       <c r="M6">
-        <v>1.073768772685536</v>
+        <v>1.041326148436727</v>
       </c>
       <c r="N6">
-        <v>1.063348685070679</v>
+        <v>1.038071397065799</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.057035625262869</v>
+        <v>1.015827570756954</v>
       </c>
       <c r="D7">
-        <v>1.062824841218099</v>
+        <v>1.026369137569636</v>
       </c>
       <c r="E7">
-        <v>1.053195507852622</v>
+        <v>1.019208273462423</v>
       </c>
       <c r="F7">
-        <v>1.070924303875627</v>
+        <v>1.029523171125885</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038451784798023</v>
+        <v>1.046585792475124</v>
       </c>
       <c r="J7">
-        <v>1.061466718519232</v>
+        <v>1.034828945879416</v>
       </c>
       <c r="K7">
-        <v>1.065242137385377</v>
+        <v>1.036156497142156</v>
       </c>
       <c r="L7">
-        <v>1.055636072145485</v>
+        <v>1.02907734430273</v>
       </c>
       <c r="M7">
-        <v>1.073322376463142</v>
+        <v>1.039274984746074</v>
       </c>
       <c r="N7">
-        <v>1.062974123011464</v>
+        <v>1.036298521679105</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.055005892963334</v>
+        <v>1.005742204592183</v>
       </c>
       <c r="D8">
-        <v>1.060933706191777</v>
+        <v>1.017294998567041</v>
       </c>
       <c r="E8">
-        <v>1.051442875323422</v>
+        <v>1.010784855215429</v>
       </c>
       <c r="F8">
-        <v>1.068810329459765</v>
+        <v>1.019511316879833</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038083428634659</v>
+        <v>1.044139275573542</v>
       </c>
       <c r="J8">
-        <v>1.059899012402581</v>
+        <v>1.027185138905984</v>
       </c>
       <c r="K8">
-        <v>1.063597320416795</v>
+        <v>1.028245685414549</v>
       </c>
       <c r="L8">
-        <v>1.054131925606957</v>
+        <v>1.021820693918434</v>
       </c>
       <c r="M8">
-        <v>1.07145320434981</v>
+        <v>1.030433325003704</v>
       </c>
       <c r="N8">
-        <v>1.061404190572308</v>
+        <v>1.028643859623012</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.051415386574669</v>
+        <v>0.9866436391429818</v>
       </c>
       <c r="D9">
-        <v>1.0575902547965</v>
+        <v>1.000162947690371</v>
       </c>
       <c r="E9">
-        <v>1.048344123443946</v>
+        <v>0.9948899673031533</v>
       </c>
       <c r="F9">
-        <v>1.065075941863568</v>
+        <v>1.000624198000619</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037417673258272</v>
+        <v>1.03939269565678</v>
       </c>
       <c r="J9">
-        <v>1.057119793812636</v>
+        <v>1.012677024159609</v>
       </c>
       <c r="K9">
-        <v>1.060683974375679</v>
+        <v>1.01325338173502</v>
       </c>
       <c r="L9">
-        <v>1.051466952024531</v>
+        <v>1.008066498888883</v>
       </c>
       <c r="M9">
-        <v>1.068146498928457</v>
+        <v>1.013707156139086</v>
       </c>
       <c r="N9">
-        <v>1.058621025173184</v>
+        <v>1.014115141689594</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.04901184370997</v>
+        <v>0.9728405840304635</v>
       </c>
       <c r="D10">
-        <v>1.055353400576256</v>
+        <v>0.9878233435914365</v>
       </c>
       <c r="E10">
-        <v>1.046270883022984</v>
+        <v>0.9834494091523536</v>
       </c>
       <c r="F10">
-        <v>1.062579568055084</v>
+        <v>0.987028610800878</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03696251149623</v>
+        <v>1.035889753929188</v>
       </c>
       <c r="J10">
-        <v>1.055255320747745</v>
+        <v>1.002174801272811</v>
       </c>
       <c r="K10">
-        <v>1.058731247520011</v>
+        <v>1.002415987673104</v>
       </c>
       <c r="L10">
-        <v>1.049680181888776</v>
+        <v>0.9981240607421616</v>
       </c>
       <c r="M10">
-        <v>1.065932813610963</v>
+        <v>1.001636084917863</v>
       </c>
       <c r="N10">
-        <v>1.056753904342683</v>
+        <v>1.003598004441675</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.047968617636877</v>
+        <v>0.966562031807806</v>
       </c>
       <c r="D11">
-        <v>1.054382841897471</v>
+        <v>0.9822223350442338</v>
       </c>
       <c r="E11">
-        <v>1.045371296120907</v>
+        <v>0.9782589219907095</v>
       </c>
       <c r="F11">
-        <v>1.061496882717916</v>
+        <v>0.9808588243785208</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036762708072706</v>
+        <v>1.034280461867537</v>
       </c>
       <c r="J11">
-        <v>1.054445123585315</v>
+        <v>0.9973952067274922</v>
       </c>
       <c r="K11">
-        <v>1.057883108768819</v>
+        <v>0.9974874842032053</v>
       </c>
       <c r="L11">
-        <v>1.048904002881296</v>
+        <v>0.9936028295811425</v>
       </c>
       <c r="M11">
-        <v>1.064971969224934</v>
+        <v>0.9961509739767773</v>
       </c>
       <c r="N11">
-        <v>1.055942556607352</v>
+        <v>0.9988116223238744</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.047580734243854</v>
+        <v>0.9641797707478791</v>
       </c>
       <c r="D12">
-        <v>1.054022025633275</v>
+        <v>0.9800991170569936</v>
       </c>
       <c r="E12">
-        <v>1.045036861813877</v>
+        <v>0.9762917436733937</v>
       </c>
       <c r="F12">
-        <v>1.061094453551759</v>
+        <v>0.978520133385943</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036688081814976</v>
+        <v>1.03366758366718</v>
       </c>
       <c r="J12">
-        <v>1.05414374120605</v>
+        <v>0.9955814683048041</v>
       </c>
       <c r="K12">
-        <v>1.05756767394362</v>
+        <v>0.9956177830586781</v>
       </c>
       <c r="L12">
-        <v>1.048615312877311</v>
+        <v>0.9918877018276101</v>
       </c>
       <c r="M12">
-        <v>1.064614713246173</v>
+        <v>0.9940707576093032</v>
       </c>
       <c r="N12">
-        <v>1.055640746230539</v>
+        <v>0.9969953081845871</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.047663954043785</v>
+        <v>0.9646931270063712</v>
       </c>
       <c r="D13">
-        <v>1.054099436012551</v>
+        <v>0.9805565600778531</v>
       </c>
       <c r="E13">
-        <v>1.045108612258704</v>
+        <v>0.9767155483763191</v>
       </c>
       <c r="F13">
-        <v>1.061180788432874</v>
+        <v>0.979023994448134</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036704108009733</v>
+        <v>1.03379975364753</v>
       </c>
       <c r="J13">
-        <v>1.054208408751016</v>
+        <v>0.9959723204934143</v>
       </c>
       <c r="K13">
-        <v>1.057635353945946</v>
+        <v>0.9960206703912878</v>
       </c>
       <c r="L13">
-        <v>1.04867725529765</v>
+        <v>0.992257277777758</v>
       </c>
       <c r="M13">
-        <v>1.064691362110034</v>
+        <v>0.9945189786616014</v>
       </c>
       <c r="N13">
-        <v>1.055705505610837</v>
+        <v>0.9973867154281369</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.047936562945808</v>
+        <v>0.9663661662181431</v>
       </c>
       <c r="D14">
-        <v>1.054353023039951</v>
+        <v>0.9820477266424904</v>
       </c>
       <c r="E14">
-        <v>1.045343657593081</v>
+        <v>0.9780971370744584</v>
       </c>
       <c r="F14">
-        <v>1.061463623398821</v>
+        <v>0.9806664935637659</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036756547828446</v>
+        <v>1.034230117197558</v>
       </c>
       <c r="J14">
-        <v>1.054420220228555</v>
+        <v>0.997246087764289</v>
       </c>
       <c r="K14">
-        <v>1.05785704300266</v>
+        <v>0.9973337531578773</v>
       </c>
       <c r="L14">
-        <v>1.048880147523869</v>
+        <v>0.993461806350702</v>
       </c>
       <c r="M14">
-        <v>1.064942445643138</v>
+        <v>0.995979921028142</v>
       </c>
       <c r="N14">
-        <v>1.055917617884969</v>
+        <v>0.9986622915946397</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.048104475241886</v>
+        <v>0.9673901830320986</v>
       </c>
       <c r="D15">
-        <v>1.054509225346801</v>
+        <v>0.9829606883169316</v>
       </c>
       <c r="E15">
-        <v>1.04548843841397</v>
+        <v>0.9789430669636859</v>
       </c>
       <c r="F15">
-        <v>1.061637851051644</v>
+        <v>0.9816721243019569</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036788803280803</v>
+        <v>1.034493235965376</v>
       </c>
       <c r="J15">
-        <v>1.054550665841983</v>
+        <v>0.9980256975093017</v>
       </c>
       <c r="K15">
-        <v>1.057993579910866</v>
+        <v>0.9981374974622079</v>
       </c>
       <c r="L15">
-        <v>1.049005105199028</v>
+        <v>0.9941991139794957</v>
       </c>
       <c r="M15">
-        <v>1.065097099091554</v>
+        <v>0.9968742544950577</v>
       </c>
       <c r="N15">
-        <v>1.056048248746131</v>
+        <v>0.9994430084749123</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.04908102610214</v>
+        <v>0.9732505201396455</v>
       </c>
       <c r="D16">
-        <v>1.055417770734278</v>
+        <v>0.9881893015460935</v>
       </c>
       <c r="E16">
-        <v>1.046330545752818</v>
+        <v>0.9837885992830686</v>
       </c>
       <c r="F16">
-        <v>1.062651384794122</v>
+        <v>0.987431753882254</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036975714375947</v>
+        <v>1.03599450843915</v>
       </c>
       <c r="J16">
-        <v>1.055309029741672</v>
+        <v>1.002486828951729</v>
       </c>
       <c r="K16">
-        <v>1.05878748030043</v>
+        <v>1.002737811471982</v>
       </c>
       <c r="L16">
-        <v>1.049731641103248</v>
+        <v>0.9984192981661908</v>
       </c>
       <c r="M16">
-        <v>1.065996532341396</v>
+        <v>1.001994343919091</v>
       </c>
       <c r="N16">
-        <v>1.056807689609542</v>
+        <v>1.003910475235686</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.04969292014837</v>
+        <v>0.9768425996344184</v>
       </c>
       <c r="D17">
-        <v>1.05598713907934</v>
+        <v>0.9913973755342208</v>
       </c>
       <c r="E17">
-        <v>1.046858273654351</v>
+        <v>0.9867623007669162</v>
       </c>
       <c r="F17">
-        <v>1.063286674866477</v>
+        <v>0.9909659436805317</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037092230086796</v>
+        <v>1.036910645807442</v>
       </c>
       <c r="J17">
-        <v>1.055783957769158</v>
+        <v>1.0052207190127</v>
       </c>
       <c r="K17">
-        <v>1.059284772313291</v>
+        <v>1.005557940157952</v>
       </c>
       <c r="L17">
-        <v>1.050186704351873</v>
+        <v>1.001006485398249</v>
       </c>
       <c r="M17">
-        <v>1.066560099563685</v>
+        <v>1.005134248742604</v>
       </c>
       <c r="N17">
-        <v>1.057283292089303</v>
+        <v>1.006648247734127</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.050049589412711</v>
+        <v>0.978909043965479</v>
       </c>
       <c r="D18">
-        <v>1.056319051002483</v>
+        <v>0.9932440087505431</v>
       </c>
       <c r="E18">
-        <v>1.047165909495692</v>
+        <v>0.9884742493909129</v>
       </c>
       <c r="F18">
-        <v>1.063657061733509</v>
+        <v>0.9930004238131631</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037159929899881</v>
+        <v>1.037436179764428</v>
       </c>
       <c r="J18">
-        <v>1.056060699087496</v>
+        <v>1.006793222968036</v>
       </c>
       <c r="K18">
-        <v>1.059574584512222</v>
+        <v>1.007180387402875</v>
       </c>
       <c r="L18">
-        <v>1.050451894759846</v>
+        <v>1.002494942994606</v>
       </c>
       <c r="M18">
-        <v>1.066888597125767</v>
+        <v>1.006941082874566</v>
       </c>
       <c r="N18">
-        <v>1.057560426412055</v>
+        <v>1.008222984825447</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.050171164339274</v>
+        <v>0.979608905192638</v>
       </c>
       <c r="D19">
-        <v>1.056432192270222</v>
+        <v>0.993869606012338</v>
       </c>
       <c r="E19">
-        <v>1.04727077526764</v>
+        <v>0.9890542552786962</v>
       </c>
       <c r="F19">
-        <v>1.063783326055015</v>
+        <v>0.9936896826898337</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037182969448322</v>
+        <v>1.037613909200961</v>
       </c>
       <c r="J19">
-        <v>1.056155014129525</v>
+        <v>1.007325751707332</v>
       </c>
       <c r="K19">
-        <v>1.059673360863034</v>
+        <v>1.007729887105751</v>
       </c>
       <c r="L19">
-        <v>1.050542277307948</v>
+        <v>1.002999065604626</v>
       </c>
       <c r="M19">
-        <v>1.067000568991286</v>
+        <v>1.007553103098162</v>
       </c>
       <c r="N19">
-        <v>1.057654875392262</v>
+        <v>1.008756269816635</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.049627294422169</v>
+        <v>0.9764602101720661</v>
       </c>
       <c r="D20">
-        <v>1.055926071066799</v>
+        <v>0.9910557493449624</v>
       </c>
       <c r="E20">
-        <v>1.046801672010422</v>
+        <v>0.9864456090365995</v>
       </c>
       <c r="F20">
-        <v>1.063218531611323</v>
+        <v>0.9905895766791905</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037079756153495</v>
+        <v>1.036813274882753</v>
       </c>
       <c r="J20">
-        <v>1.055733031110831</v>
+        <v>1.004929711093797</v>
       </c>
       <c r="K20">
-        <v>1.059231443487663</v>
+        <v>1.005257717273302</v>
       </c>
       <c r="L20">
-        <v>1.050137905280927</v>
+        <v>1.000731058139793</v>
       </c>
       <c r="M20">
-        <v>1.066499657130346</v>
+        <v>1.004799940238097</v>
       </c>
       <c r="N20">
-        <v>1.05723229310928</v>
+        <v>1.006356826550599</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.047856297072276</v>
+        <v>0.965874923715843</v>
       </c>
       <c r="D21">
-        <v>1.054278356545043</v>
+        <v>0.9816098306382163</v>
       </c>
       <c r="E21">
-        <v>1.045274450608111</v>
+        <v>0.9776914077124472</v>
       </c>
       <c r="F21">
-        <v>1.061380343132656</v>
+        <v>0.9801841539679721</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036741116956603</v>
+        <v>1.034103813800609</v>
       </c>
       <c r="J21">
-        <v>1.054357859214561</v>
+        <v>0.9968720855008535</v>
       </c>
       <c r="K21">
-        <v>1.057791772164909</v>
+        <v>0.9969481921734583</v>
       </c>
       <c r="L21">
-        <v>1.048820411442168</v>
+        <v>0.9931081180578762</v>
       </c>
       <c r="M21">
-        <v>1.064868517693012</v>
+        <v>0.9955509265477809</v>
       </c>
       <c r="N21">
-        <v>1.055855168311183</v>
+        <v>0.9982877582050909</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.046740580702345</v>
+        <v>0.9589265865277891</v>
       </c>
       <c r="D22">
-        <v>1.05324058899513</v>
+        <v>0.9754210041834271</v>
       </c>
       <c r="E22">
-        <v>1.044312557361141</v>
+        <v>0.9719582761288019</v>
       </c>
       <c r="F22">
-        <v>1.060223024342215</v>
+        <v>0.9733674472218538</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036525825564399</v>
+        <v>1.032312073873997</v>
       </c>
       <c r="J22">
-        <v>1.053490689576189</v>
+        <v>0.9915817149987669</v>
       </c>
       <c r="K22">
-        <v>1.056884284816989</v>
+        <v>0.9914956233740075</v>
       </c>
       <c r="L22">
-        <v>1.047989833577582</v>
+        <v>0.9881064924702819</v>
       </c>
       <c r="M22">
-        <v>1.063840893508426</v>
+        <v>0.9894856292058605</v>
       </c>
       <c r="N22">
-        <v>1.054986767192458</v>
+        <v>0.9929898747700775</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.047332257112261</v>
+        <v>0.9626395957313614</v>
       </c>
       <c r="D23">
-        <v>1.05379090139819</v>
+        <v>0.9787269964629465</v>
       </c>
       <c r="E23">
-        <v>1.044822636090308</v>
+        <v>0.9750205887989893</v>
       </c>
       <c r="F23">
-        <v>1.060836693867633</v>
+        <v>0.9770087949838955</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036640181586305</v>
+        <v>1.033270724403099</v>
       </c>
       <c r="J23">
-        <v>1.053950636549982</v>
+        <v>0.9944088104485136</v>
       </c>
       <c r="K23">
-        <v>1.057365582718806</v>
+        <v>0.9944090964658382</v>
       </c>
       <c r="L23">
-        <v>1.048430351338914</v>
+        <v>0.9907789637589567</v>
       </c>
       <c r="M23">
-        <v>1.064385855164628</v>
+        <v>0.9927261592704462</v>
       </c>
       <c r="N23">
-        <v>1.055447367343711</v>
+        <v>0.9958209850196352</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.049656948599123</v>
+        <v>0.9766330840170754</v>
       </c>
       <c r="D24">
-        <v>1.055953665663393</v>
+        <v>0.9912101911842945</v>
       </c>
       <c r="E24">
-        <v>1.046827248409961</v>
+        <v>0.9865887778489139</v>
       </c>
       <c r="F24">
-        <v>1.063249323131602</v>
+        <v>0.9907597236891099</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037085393396131</v>
+        <v>1.036857299820156</v>
       </c>
       <c r="J24">
-        <v>1.055756043529107</v>
+        <v>1.005061273167576</v>
       </c>
       <c r="K24">
-        <v>1.059255541260538</v>
+        <v>1.005393444294353</v>
       </c>
       <c r="L24">
-        <v>1.050159956223186</v>
+        <v>1.00085557529551</v>
       </c>
       <c r="M24">
-        <v>1.066526969149358</v>
+        <v>1.004951075646141</v>
       </c>
       <c r="N24">
-        <v>1.05725533820783</v>
+        <v>1.006488575457613</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.052345317647873</v>
+        <v>0.9917553357716574</v>
       </c>
       <c r="D25">
-        <v>1.058455972446507</v>
+        <v>1.004741695183616</v>
       </c>
       <c r="E25">
-        <v>1.049146499361079</v>
+        <v>0.9991368771197567</v>
       </c>
       <c r="F25">
-        <v>1.066042526630272</v>
+        <v>1.005670448853082</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037591774157936</v>
+        <v>1.040675776566096</v>
       </c>
       <c r="J25">
-        <v>1.057840312773198</v>
+        <v>1.016563387515877</v>
       </c>
       <c r="K25">
-        <v>1.061438962270022</v>
+        <v>1.01726684570372</v>
       </c>
       <c r="L25">
-        <v>1.052157666780288</v>
+        <v>1.011748606752008</v>
       </c>
       <c r="M25">
-        <v>1.069002950000282</v>
+        <v>1.018181371567412</v>
       </c>
       <c r="N25">
-        <v>1.059342567353315</v>
+        <v>1.0180070241276</v>
       </c>
     </row>
   </sheetData>
